--- a/ValueSet-TuberculosisVS.xlsx
+++ b/ValueSet-TuberculosisVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-28T09:30:35-05:00</t>
+    <t>2023-11-28T21:37:28-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-TuberculosisVS.xlsx
+++ b/ValueSet-TuberculosisVS.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/TuberculosisVS</t>
+    <t>http://hl7.org/fhir/us/reportofilltraveler/ValueSet/TuberculosisVS</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-28T21:37:28-05:00</t>
+    <t>2023-12-05T13:08:56-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-TuberculosisVS.xlsx
+++ b/ValueSet-TuberculosisVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-05T13:08:56-05:00</t>
+    <t>2023-12-05T18:52:01-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
